--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Amelx</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H2">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.1511265532101</v>
+        <v>63.22650766666666</v>
       </c>
       <c r="N2">
-        <v>63.1511265532101</v>
+        <v>189.679523</v>
       </c>
       <c r="O2">
-        <v>0.06115518242930817</v>
+        <v>0.06017345094148421</v>
       </c>
       <c r="P2">
-        <v>0.06115518242930817</v>
+        <v>0.06017345094148421</v>
       </c>
       <c r="Q2">
-        <v>61.8191759038413</v>
+        <v>78.00776923300045</v>
       </c>
       <c r="R2">
-        <v>61.8191759038413</v>
+        <v>702.069923097004</v>
       </c>
       <c r="S2">
-        <v>0.06115518242930817</v>
+        <v>0.04934818832882606</v>
       </c>
       <c r="T2">
-        <v>0.06115518242930817</v>
+        <v>0.04934818832882607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H3">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>107.596243961777</v>
+        <v>107.622114</v>
       </c>
       <c r="N3">
-        <v>107.596243961777</v>
+        <v>322.866342</v>
       </c>
       <c r="O3">
-        <v>0.1041955747637624</v>
+        <v>0.1024252997040353</v>
       </c>
       <c r="P3">
-        <v>0.1041955747637624</v>
+        <v>0.1024252997040353</v>
       </c>
       <c r="Q3">
-        <v>105.3268800590796</v>
+        <v>132.782298803224</v>
       </c>
       <c r="R3">
-        <v>105.3268800590796</v>
+        <v>1195.040689229016</v>
       </c>
       <c r="S3">
-        <v>0.1041955747637624</v>
+        <v>0.08399888821976405</v>
       </c>
       <c r="T3">
-        <v>0.1041955747637624</v>
+        <v>0.08399888821976406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H4">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>448.373292052601</v>
+        <v>449.3431903333333</v>
       </c>
       <c r="N4">
-        <v>448.373292052601</v>
+        <v>1348.029571</v>
       </c>
       <c r="O4">
-        <v>0.4342020794958005</v>
+        <v>0.4276454831565478</v>
       </c>
       <c r="P4">
-        <v>0.4342020794958005</v>
+        <v>0.4276454831565478</v>
       </c>
       <c r="Q4">
-        <v>438.9164362512102</v>
+        <v>554.3918396179675</v>
       </c>
       <c r="R4">
-        <v>438.9164362512102</v>
+        <v>4989.526556561708</v>
       </c>
       <c r="S4">
-        <v>0.4342020794958005</v>
+        <v>0.3507116429354085</v>
       </c>
       <c r="T4">
-        <v>0.4342020794958005</v>
+        <v>0.3507116429354086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.978908521160798</v>
+        <v>1.233782666666667</v>
       </c>
       <c r="H5">
-        <v>0.978908521160798</v>
+        <v>3.701348</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8200990230195506</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8200990230195507</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>388.553357178282</v>
+        <v>404.2663676666666</v>
       </c>
       <c r="N5">
-        <v>388.553357178282</v>
+        <v>1212.799103</v>
       </c>
       <c r="O5">
-        <v>0.3762728036488227</v>
+        <v>0.3847453123669367</v>
       </c>
       <c r="P5">
-        <v>0.3762728036488227</v>
+        <v>0.3847453123669367</v>
       </c>
       <c r="Q5">
-        <v>380.3581922674554</v>
+        <v>498.776837143427</v>
       </c>
       <c r="R5">
-        <v>380.3581922674554</v>
+        <v>4488.991534290843</v>
       </c>
       <c r="S5">
-        <v>0.3762728036488227</v>
+        <v>0.3155292547834766</v>
       </c>
       <c r="T5">
-        <v>0.3762728036488227</v>
+        <v>0.3155292547834767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.233782666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.701348</v>
+      </c>
+      <c r="I6">
+        <v>0.8200990230195506</v>
+      </c>
+      <c r="J6">
+        <v>0.8200990230195507</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>26.27942433333333</v>
+      </c>
+      <c r="N6">
+        <v>78.838273</v>
+      </c>
+      <c r="O6">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="P6">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="Q6">
+        <v>32.42309823244489</v>
+      </c>
+      <c r="R6">
+        <v>291.807884092004</v>
+      </c>
+      <c r="S6">
+        <v>0.02051104875207538</v>
+      </c>
+      <c r="T6">
+        <v>0.02051104875207538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.266414</v>
+      </c>
+      <c r="I7">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J7">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>63.22650766666666</v>
+      </c>
+      <c r="N7">
+        <v>189.679523</v>
+      </c>
+      <c r="O7">
+        <v>0.06017345094148421</v>
+      </c>
+      <c r="P7">
+        <v>0.06017345094148421</v>
+      </c>
+      <c r="Q7">
+        <v>5.614808937835777</v>
+      </c>
+      <c r="R7">
+        <v>50.53328044052199</v>
+      </c>
+      <c r="S7">
+        <v>0.003551962216315749</v>
+      </c>
+      <c r="T7">
+        <v>0.00355196221631575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.266414</v>
+      </c>
+      <c r="I8">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J8">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>107.622114</v>
+      </c>
+      <c r="N8">
+        <v>322.866342</v>
+      </c>
+      <c r="O8">
+        <v>0.1024252997040353</v>
+      </c>
+      <c r="P8">
+        <v>0.1024252997040353</v>
+      </c>
+      <c r="Q8">
+        <v>9.557345959731999</v>
+      </c>
+      <c r="R8">
+        <v>86.01611363758799</v>
+      </c>
+      <c r="S8">
+        <v>0.006046035067813191</v>
+      </c>
+      <c r="T8">
+        <v>0.006046035067813192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.266414</v>
+      </c>
+      <c r="I9">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J9">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>449.3431903333333</v>
+      </c>
+      <c r="N9">
+        <v>1348.029571</v>
+      </c>
+      <c r="O9">
+        <v>0.4276454831565478</v>
+      </c>
+      <c r="P9">
+        <v>0.4276454831565478</v>
+      </c>
+      <c r="Q9">
+        <v>39.90377223648822</v>
+      </c>
+      <c r="R9">
+        <v>359.133950128394</v>
+      </c>
+      <c r="S9">
+        <v>0.02524336853519148</v>
+      </c>
+      <c r="T9">
+        <v>0.02524336853519148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.266414</v>
+      </c>
+      <c r="I10">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J10">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>404.2663676666666</v>
+      </c>
+      <c r="N10">
+        <v>1212.799103</v>
+      </c>
+      <c r="O10">
+        <v>0.3847453123669367</v>
+      </c>
+      <c r="P10">
+        <v>0.3847453123669367</v>
+      </c>
+      <c r="Q10">
+        <v>35.90074002518244</v>
+      </c>
+      <c r="R10">
+        <v>323.106660226642</v>
+      </c>
+      <c r="S10">
+        <v>0.02271102605966397</v>
+      </c>
+      <c r="T10">
+        <v>0.02271102605966398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08880466666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.266414</v>
+      </c>
+      <c r="I11">
+        <v>0.05902872713366334</v>
+      </c>
+      <c r="J11">
+        <v>0.05902872713366335</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>26.27942433333333</v>
+      </c>
+      <c r="N11">
+        <v>78.838273</v>
+      </c>
+      <c r="O11">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="P11">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="Q11">
+        <v>2.333735518113556</v>
+      </c>
+      <c r="R11">
+        <v>21.003619663022</v>
+      </c>
+      <c r="S11">
+        <v>0.001476335254678947</v>
+      </c>
+      <c r="T11">
+        <v>0.001476335254678947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.978908521160798</v>
-      </c>
-      <c r="H6">
-        <v>0.978908521160798</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>24.9633471070391</v>
-      </c>
-      <c r="N6">
-        <v>24.9633471070391</v>
-      </c>
-      <c r="O6">
-        <v>0.02417435966230624</v>
-      </c>
-      <c r="P6">
-        <v>0.02417435966230624</v>
-      </c>
-      <c r="Q6">
-        <v>24.43683319977533</v>
-      </c>
-      <c r="R6">
-        <v>24.43683319977533</v>
-      </c>
-      <c r="S6">
-        <v>0.02417435966230624</v>
-      </c>
-      <c r="T6">
-        <v>0.02417435966230624</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.252496</v>
+      </c>
+      <c r="I12">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J12">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>63.22650766666666</v>
+      </c>
+      <c r="N12">
+        <v>189.679523</v>
+      </c>
+      <c r="O12">
+        <v>0.06017345094148421</v>
+      </c>
+      <c r="P12">
+        <v>0.06017345094148421</v>
+      </c>
+      <c r="Q12">
+        <v>5.321480093267555</v>
+      </c>
+      <c r="R12">
+        <v>47.893320839408</v>
+      </c>
+      <c r="S12">
+        <v>0.00336640060871749</v>
+      </c>
+      <c r="T12">
+        <v>0.00336640060871749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.252496</v>
+      </c>
+      <c r="I13">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J13">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>107.622114</v>
+      </c>
+      <c r="N13">
+        <v>322.866342</v>
+      </c>
+      <c r="O13">
+        <v>0.1024252997040353</v>
+      </c>
+      <c r="P13">
+        <v>0.1024252997040353</v>
+      </c>
+      <c r="Q13">
+        <v>9.058051098847999</v>
+      </c>
+      <c r="R13">
+        <v>81.52245988963199</v>
+      </c>
+      <c r="S13">
+        <v>0.005730178108066992</v>
+      </c>
+      <c r="T13">
+        <v>0.005730178108066992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.252496</v>
+      </c>
+      <c r="I14">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J14">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>449.3431903333333</v>
+      </c>
+      <c r="N14">
+        <v>1348.029571</v>
+      </c>
+      <c r="O14">
+        <v>0.4276454831565478</v>
+      </c>
+      <c r="P14">
+        <v>0.4276454831565478</v>
+      </c>
+      <c r="Q14">
+        <v>37.81911939546844</v>
+      </c>
+      <c r="R14">
+        <v>340.372074559216</v>
+      </c>
+      <c r="S14">
+        <v>0.02392460449398946</v>
+      </c>
+      <c r="T14">
+        <v>0.02392460449398946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.252496</v>
+      </c>
+      <c r="I15">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J15">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>404.2663676666666</v>
+      </c>
+      <c r="N15">
+        <v>1212.799103</v>
+      </c>
+      <c r="O15">
+        <v>0.3847453123669367</v>
+      </c>
+      <c r="P15">
+        <v>0.3847453123669367</v>
+      </c>
+      <c r="Q15">
+        <v>34.02521359012088</v>
+      </c>
+      <c r="R15">
+        <v>306.2269223110879</v>
+      </c>
+      <c r="S15">
+        <v>0.02152455665228147</v>
+      </c>
+      <c r="T15">
+        <v>0.02152455665228147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08416533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.252496</v>
+      </c>
+      <c r="I16">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="J16">
+        <v>0.05594494841240123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>26.27942433333333</v>
+      </c>
+      <c r="N16">
+        <v>78.838273</v>
+      </c>
+      <c r="O16">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="P16">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="Q16">
+        <v>2.211816508823111</v>
+      </c>
+      <c r="R16">
+        <v>19.906348579408</v>
+      </c>
+      <c r="S16">
+        <v>0.001399208549345813</v>
+      </c>
+      <c r="T16">
+        <v>0.001399208549345813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H17">
+        <v>0.293036</v>
+      </c>
+      <c r="I17">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J17">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>63.22650766666666</v>
+      </c>
+      <c r="N17">
+        <v>189.679523</v>
+      </c>
+      <c r="O17">
+        <v>0.06017345094148421</v>
+      </c>
+      <c r="P17">
+        <v>0.06017345094148421</v>
+      </c>
+      <c r="Q17">
+        <v>6.175880966869778</v>
+      </c>
+      <c r="R17">
+        <v>55.582928701828</v>
+      </c>
+      <c r="S17">
+        <v>0.003906899787624907</v>
+      </c>
+      <c r="T17">
+        <v>0.003906899787624907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H18">
+        <v>0.293036</v>
+      </c>
+      <c r="I18">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J18">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>107.622114</v>
+      </c>
+      <c r="N18">
+        <v>322.866342</v>
+      </c>
+      <c r="O18">
+        <v>0.1024252997040353</v>
+      </c>
+      <c r="P18">
+        <v>0.1024252997040353</v>
+      </c>
+      <c r="Q18">
+        <v>10.512384599368</v>
+      </c>
+      <c r="R18">
+        <v>94.611461394312</v>
+      </c>
+      <c r="S18">
+        <v>0.0066501983083911</v>
+      </c>
+      <c r="T18">
+        <v>0.0066501983083911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H19">
+        <v>0.293036</v>
+      </c>
+      <c r="I19">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J19">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>449.3431903333333</v>
+      </c>
+      <c r="N19">
+        <v>1348.029571</v>
+      </c>
+      <c r="O19">
+        <v>0.4276454831565478</v>
+      </c>
+      <c r="P19">
+        <v>0.4276454831565478</v>
+      </c>
+      <c r="Q19">
+        <v>43.89124370750623</v>
+      </c>
+      <c r="R19">
+        <v>395.021193367556</v>
+      </c>
+      <c r="S19">
+        <v>0.02776586719195828</v>
+      </c>
+      <c r="T19">
+        <v>0.02776586719195828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H20">
+        <v>0.293036</v>
+      </c>
+      <c r="I20">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J20">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>404.2663676666666</v>
+      </c>
+      <c r="N20">
+        <v>1212.799103</v>
+      </c>
+      <c r="O20">
+        <v>0.3847453123669367</v>
+      </c>
+      <c r="P20">
+        <v>0.3847453123669367</v>
+      </c>
+      <c r="Q20">
+        <v>39.48819977185644</v>
+      </c>
+      <c r="R20">
+        <v>355.393797946708</v>
+      </c>
+      <c r="S20">
+        <v>0.02498047487151461</v>
+      </c>
+      <c r="T20">
+        <v>0.02498047487151461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09767866666666668</v>
+      </c>
+      <c r="H21">
+        <v>0.293036</v>
+      </c>
+      <c r="I21">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="J21">
+        <v>0.06492730143438473</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.27942433333333</v>
+      </c>
+      <c r="N21">
+        <v>78.838273</v>
+      </c>
+      <c r="O21">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="P21">
+        <v>0.02501045383099598</v>
+      </c>
+      <c r="Q21">
+        <v>2.566939129647556</v>
+      </c>
+      <c r="R21">
+        <v>23.102452166828</v>
+      </c>
+      <c r="S21">
+        <v>0.001623861274895838</v>
+      </c>
+      <c r="T21">
+        <v>0.001623861274895838</v>
       </c>
     </row>
   </sheetData>
